--- a/mattresses.xlsx
+++ b/mattresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmasonb\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C8BDC1-EFEB-4FFE-8261-EE13C9F2CE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA38A0B9-9B11-47B7-97F9-CD9F432D7415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,10 +205,6 @@
     <t>Brooklyn Bedding Spartan</t>
   </si>
   <si>
-    <t>11.5"
-6 Layers</t>
-  </si>
-  <si>
     <t>15 Years</t>
   </si>
   <si>
@@ -257,13 +253,18 @@
 5 Layers</t>
   </si>
   <si>
+    <t>Cloud Pillow Top (+$400 or +$250)
+Pillow top adds some cooling and some pressure point relief</t>
+  </si>
+  <si>
+    <t>13"
+6 Layers</t>
+  </si>
+  <si>
     <t>Cooling Matress
 Reduces back pain
-Reduces Joint pain</t>
-  </si>
-  <si>
-    <t>Cloud Pillow Top (+$400 or +$250)
-Pillow top adds some cooling and some pressure point relief</t>
+Reduces Joint pain
+Supposedly better for athletes and people who get their muscles sore due to some sort of new mattress tech</t>
   </si>
 </sst>
 </file>
@@ -649,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +725,7 @@
         <v>27</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -745,7 +746,7 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,7 +769,7 @@
         <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -789,7 +790,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -812,7 +813,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -856,7 +857,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -877,7 +878,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" spans="1:26" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -917,7 +918,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -957,7 +958,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -997,7 +998,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1039,7 +1040,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1081,28 +1082,28 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1125,25 +1126,25 @@
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -1151,10 +1152,10 @@
         <v>41</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
@@ -1167,7 +1168,7 @@
         <v>43</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1190,26 +1191,26 @@
     </row>
     <row r="14" spans="1:26" s="11" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>43</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1230,7 +1231,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1258,7 +1259,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
